--- a/src/planning/samples/2025_planning_0.xlsx
+++ b/src/planning/samples/2025_planning_0.xlsx
@@ -4243,87 +4243,87 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S4" s="6" t="inlineStr">
@@ -4338,12 +4338,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -4353,67 +4353,67 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AA4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AC4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AG4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AH4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="AN4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AO4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AP4" s="5" t="inlineStr">
@@ -4448,32 +4448,32 @@
       </c>
       <c r="AQ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AR4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AS4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AT4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AU4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AV4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AW4" s="5" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="AX4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AY4" s="5" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="BC4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BD4" s="5" t="inlineStr">
@@ -4523,27 +4523,27 @@
       </c>
       <c r="BF4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BG4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BH4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BI4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BJ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BK4" s="5" t="inlineStr">
@@ -4593,32 +4593,32 @@
       </c>
       <c r="BT4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BU4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BV4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BW4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BX4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BY4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BZ4" s="5" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="CA4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CB4" s="5" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="CF4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CG4" s="5" t="inlineStr">
@@ -4663,37 +4663,37 @@
       </c>
       <c r="CH4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CI4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CJ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CK4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CL4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CM4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CN4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CO4" s="5" t="inlineStr">
@@ -4713,12 +4713,12 @@
       </c>
       <c r="CR4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CS4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CT4" s="5" t="inlineStr">
@@ -4733,27 +4733,27 @@
       </c>
       <c r="CV4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CW4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CX4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CY4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CZ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DA4" s="5" t="inlineStr">
@@ -4803,32 +4803,32 @@
       </c>
       <c r="DJ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DK4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DL4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DM4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DN4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DO4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DP4" s="5" t="inlineStr">
@@ -4838,32 +4838,32 @@
       </c>
       <c r="DQ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DR4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DS4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DT4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DU4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DV4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DW4" s="5" t="inlineStr">
@@ -4873,17 +4873,17 @@
       </c>
       <c r="DX4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DY4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DZ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EA4" s="6" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="EC4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="ED4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EE4" s="5" t="inlineStr">
@@ -4913,67 +4913,67 @@
       </c>
       <c r="EF4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EG4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EH4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EI4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EJ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EK4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EL4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EM4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EN4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EO4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EP4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EQ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="ER4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="ES4" s="5" t="inlineStr">
@@ -4993,57 +4993,57 @@
       </c>
       <c r="EV4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EW4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EX4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EY4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EZ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FA4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FB4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FC4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FD4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FE4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FF4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FG4" s="5" t="inlineStr">
@@ -5063,12 +5063,12 @@
       </c>
       <c r="FJ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FK4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FL4" s="5" t="inlineStr">
@@ -5078,32 +5078,32 @@
       </c>
       <c r="FM4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FN4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FO4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FP4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FQ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FR4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FS4" s="5" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="FT4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FU4" s="5" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="FY4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FZ4" s="5" t="inlineStr">
@@ -5148,32 +5148,32 @@
       </c>
       <c r="GA4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GB4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GC4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GD4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GE4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GF4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GG4" s="5" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="GH4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GI4" s="5" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="GM4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GN4" s="5" t="inlineStr">
@@ -5223,32 +5223,32 @@
       </c>
       <c r="GP4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GQ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GR4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GS4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GT4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GU4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GV4" s="5" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="GW4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GX4" s="5" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="HB4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HC4" s="5" t="inlineStr">
@@ -5293,67 +5293,67 @@
       </c>
       <c r="HD4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HE4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HF4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HG4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HH4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HI4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HJ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HK4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HL4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HM4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HN4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HO4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HP4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="HQ4" s="5" t="inlineStr">
@@ -5363,52 +5363,52 @@
       </c>
       <c r="HR4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HS4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HT4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HU4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HV4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HW4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HX4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HY4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HZ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IA4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IB4" s="6" t="inlineStr">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="ID4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IE4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IF4" s="5" t="inlineStr">
@@ -5438,52 +5438,52 @@
       </c>
       <c r="IG4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IH4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="II4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IJ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IK4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IL4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IM4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IN4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IO4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IP4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IQ4" s="6" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="IR4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IS4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IT4" s="5" t="inlineStr">
@@ -5513,62 +5513,62 @@
       </c>
       <c r="IV4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IW4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IX4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IY4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IZ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JA4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JB4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JC4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JD4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JE4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JF4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JG4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JH4" s="5" t="inlineStr">
@@ -5588,22 +5588,22 @@
       </c>
       <c r="JK4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JL4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JM4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JN4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JO4" s="5" t="inlineStr">
@@ -5623,22 +5623,22 @@
       </c>
       <c r="JR4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JS4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JT4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JU4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JV4" s="5" t="inlineStr">
@@ -5658,12 +5658,12 @@
       </c>
       <c r="JY4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JZ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KA4" s="5" t="inlineStr">
@@ -5673,32 +5673,32 @@
       </c>
       <c r="KB4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KC4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KD4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KE4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KF4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KG4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KH4" s="5" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="KI4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KJ4" s="5" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="KN4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KO4" s="5" t="inlineStr">
@@ -5748,27 +5748,27 @@
       </c>
       <c r="KQ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KR4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KS4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KT4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KU4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KV4" s="5" t="inlineStr">
@@ -5818,32 +5818,32 @@
       </c>
       <c r="LE4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LF4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LG4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LH4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LI4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LJ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LK4" s="5" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="LL4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LM4" s="5" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="LQ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LR4" s="5" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="LS4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LT4" s="5" t="inlineStr">
@@ -5903,92 +5903,92 @@
       </c>
       <c r="LV4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LW4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LX4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="LY4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="LZ4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MA4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MB4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MC4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MD4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="ME4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MF4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MG4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MH4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MI4" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MJ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MK4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ML4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="MM4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="MN4" s="5" t="inlineStr">
@@ -6008,22 +6008,22 @@
       </c>
       <c r="MQ4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MR4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MS4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="MT4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="MU4" s="5" t="inlineStr">
@@ -6043,37 +6043,37 @@
       </c>
       <c r="MX4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MY4" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MZ4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="NA4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="NB4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="NC4" s="5" t="n">
-        <v>1827</v>
+        <v>1582</v>
       </c>
       <c r="ND4" s="5" t="n">
         <v>1852.5</v>
       </c>
       <c r="NE4" s="5" t="n">
-        <v>25.5</v>
+        <v>270.5</v>
       </c>
     </row>
     <row r="5">
@@ -6094,37 +6094,37 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -6134,12 +6134,12 @@
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N5" s="5" t="inlineStr">
@@ -6154,47 +6154,47 @@
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="S5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y5" s="5" t="inlineStr">
@@ -6209,17 +6209,17 @@
       </c>
       <c r="AA5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD5" s="5" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="AF5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AG5" s="6" t="inlineStr">
@@ -6249,17 +6249,17 @@
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AL5" s="5" t="inlineStr">
@@ -6269,17 +6269,17 @@
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AN5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AO5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AP5" s="5" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="AR5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AS5" s="5" t="inlineStr">
@@ -6304,12 +6304,12 @@
       </c>
       <c r="AT5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AU5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AV5" s="6" t="inlineStr">
@@ -6319,37 +6319,37 @@
       </c>
       <c r="AW5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AX5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AY5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AZ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BA5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BB5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BC5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BD5" s="5" t="inlineStr">
@@ -6364,47 +6364,47 @@
       </c>
       <c r="BF5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BG5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BH5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BI5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BJ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BK5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BL5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BM5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BN5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BO5" s="5" t="inlineStr">
@@ -6414,12 +6414,12 @@
       </c>
       <c r="BP5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BQ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BR5" s="5" t="inlineStr">
@@ -6434,47 +6434,47 @@
       </c>
       <c r="BT5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BU5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BV5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BW5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BX5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BY5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CA5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CB5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CC5" s="5" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="CE5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CG5" s="5" t="inlineStr">
@@ -6504,37 +6504,37 @@
       </c>
       <c r="CH5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CI5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CJ5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CK5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CL5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CM5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CN5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CO5" s="5" t="inlineStr">
@@ -6564,12 +6564,12 @@
       </c>
       <c r="CT5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CU5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CV5" s="5" t="inlineStr">
@@ -6584,17 +6584,17 @@
       </c>
       <c r="CX5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CY5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CZ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DA5" s="5" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="DE5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DF5" s="6" t="inlineStr">
@@ -6634,17 +6634,17 @@
       </c>
       <c r="DH5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DI5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DJ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DK5" s="5" t="inlineStr">
@@ -6654,17 +6654,17 @@
       </c>
       <c r="DL5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DM5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DN5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DO5" s="5" t="inlineStr">
@@ -6679,27 +6679,27 @@
       </c>
       <c r="DQ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DR5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DS5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DT5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DU5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DV5" s="5" t="inlineStr">
@@ -6714,47 +6714,47 @@
       </c>
       <c r="DX5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DY5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DZ5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EA5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EB5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="ED5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EE5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EF5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EG5" s="5" t="inlineStr">
@@ -6764,17 +6764,17 @@
       </c>
       <c r="EH5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EI5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EK5" s="5" t="inlineStr">
@@ -6784,47 +6784,47 @@
       </c>
       <c r="EL5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EM5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EN5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EO5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EP5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EQ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ER5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="ES5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="ET5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EU5" s="5" t="inlineStr">
@@ -6839,12 +6839,12 @@
       </c>
       <c r="EW5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EX5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EY5" s="5" t="inlineStr">
@@ -6854,37 +6854,37 @@
       </c>
       <c r="EZ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FA5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FB5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FC5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FD5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FE5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FG5" s="5" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="FH5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FI5" s="5" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="FL5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FM5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FN5" s="5" t="inlineStr">
@@ -6929,22 +6929,22 @@
       </c>
       <c r="FO5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FP5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FQ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FR5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FS5" s="5" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="FT5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FU5" s="5" t="inlineStr">
@@ -6984,62 +6984,62 @@
       </c>
       <c r="FZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GA5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GB5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GC5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GD5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GE5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GF5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GG5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GH5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GI5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GJ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GK5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="GL5" s="6" t="inlineStr">
@@ -7054,17 +7054,17 @@
       </c>
       <c r="GN5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GO5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GP5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GQ5" s="5" t="inlineStr">
@@ -7074,17 +7074,17 @@
       </c>
       <c r="GR5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GS5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GT5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GU5" s="5" t="inlineStr">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="GW5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GX5" s="5" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="GY5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GZ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HA5" s="6" t="inlineStr">
@@ -7124,32 +7124,32 @@
       </c>
       <c r="HB5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HD5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HE5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HF5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HG5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HH5" s="6" t="inlineStr">
@@ -7159,32 +7159,32 @@
       </c>
       <c r="HI5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HK5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HL5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HM5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HN5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HO5" s="6" t="inlineStr">
@@ -7194,37 +7194,37 @@
       </c>
       <c r="HP5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HQ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HR5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HS5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HT5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HU5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HV5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HW5" s="5" t="inlineStr">
@@ -7239,47 +7239,47 @@
       </c>
       <c r="HY5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HZ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IA5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IB5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IC5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ID5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IE5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IF5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IG5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IH5" s="5" t="inlineStr">
@@ -7289,17 +7289,17 @@
       </c>
       <c r="II5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IJ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IK5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IL5" s="5" t="inlineStr">
@@ -7309,47 +7309,47 @@
       </c>
       <c r="IM5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IN5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IO5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IP5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IQ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IR5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IS5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IT5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IU5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IV5" s="5" t="inlineStr">
@@ -7364,62 +7364,62 @@
       </c>
       <c r="IX5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IY5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JA5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JB5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JC5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JD5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JE5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JG5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JH5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JI5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JJ5" s="5" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="JM5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JN5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JO5" s="5" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="JQ5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JR5" s="6" t="inlineStr">
@@ -7474,17 +7474,17 @@
       </c>
       <c r="JT5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JU5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JV5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JW5" s="5" t="inlineStr">
@@ -7494,17 +7494,17 @@
       </c>
       <c r="JX5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JY5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JZ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KA5" s="5" t="inlineStr">
@@ -7519,7 +7519,7 @@
       </c>
       <c r="KC5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KD5" s="5" t="inlineStr">
@@ -7529,12 +7529,12 @@
       </c>
       <c r="KE5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KF5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KG5" s="6" t="inlineStr">
@@ -7544,37 +7544,37 @@
       </c>
       <c r="KH5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KI5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KJ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KK5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KL5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KM5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KN5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KO5" s="5" t="inlineStr">
@@ -7589,47 +7589,47 @@
       </c>
       <c r="KQ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KR5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KS5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KT5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KU5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KV5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KW5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KX5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KY5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KZ5" s="5" t="inlineStr">
@@ -7639,12 +7639,12 @@
       </c>
       <c r="LA5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LB5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LC5" s="5" t="inlineStr">
@@ -7659,47 +7659,47 @@
       </c>
       <c r="LE5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LF5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LG5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LH5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LI5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LK5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LL5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LM5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LN5" s="5" t="inlineStr">
@@ -7714,27 +7714,27 @@
       </c>
       <c r="LP5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LQ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LR5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LS5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LT5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LU5" s="5" t="inlineStr">
@@ -7749,27 +7749,27 @@
       </c>
       <c r="LW5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LX5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LY5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LZ5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MA5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MB5" s="5" t="inlineStr">
@@ -7784,62 +7784,62 @@
       </c>
       <c r="MD5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ME5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MG5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MH5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MI5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MJ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="MK5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="ML5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MM5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MN5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MO5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MP5" s="5" t="inlineStr">
@@ -7849,32 +7849,32 @@
       </c>
       <c r="MQ5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MR5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MS5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MT5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MU5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MV5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="MW5" s="5" t="inlineStr">
@@ -7884,12 +7884,12 @@
       </c>
       <c r="MX5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MY5" s="6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MZ5" s="5" t="inlineStr">
@@ -7904,17 +7904,17 @@
       </c>
       <c r="NB5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="NC5" s="5" t="n">
-        <v>1820</v>
+        <v>1603</v>
       </c>
       <c r="ND5" s="5" t="n">
         <v>1852.5</v>
       </c>
       <c r="NE5" s="5" t="n">
-        <v>32.5</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="6">
@@ -7925,77 +7925,77 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
@@ -8005,17 +8005,17 @@
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U6" s="5" t="inlineStr">
@@ -8025,22 +8025,22 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="Y6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="Z6" s="6" t="inlineStr">
@@ -8055,27 +8055,27 @@
       </c>
       <c r="AB6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AC6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AD6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AE6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AF6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AG6" s="6" t="inlineStr">
@@ -8090,17 +8090,17 @@
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AL6" s="5" t="inlineStr">
@@ -8110,17 +8110,17 @@
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AN6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AO6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AP6" s="5" t="inlineStr">
@@ -8130,67 +8130,67 @@
       </c>
       <c r="AQ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AR6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AT6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AU6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AV6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AW6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AX6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AY6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AZ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BA6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BB6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BC6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BD6" s="5" t="inlineStr">
@@ -8205,47 +8205,47 @@
       </c>
       <c r="BF6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BG6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BH6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BI6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BJ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BL6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BM6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BN6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BO6" s="5" t="inlineStr">
@@ -8255,12 +8255,12 @@
       </c>
       <c r="BP6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BQ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="BR6" s="5" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="BU6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BV6" s="5" t="inlineStr">
@@ -8290,32 +8290,32 @@
       </c>
       <c r="BW6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BX6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BY6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="BZ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CA6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CB6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CC6" s="5" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="CE6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CF6" s="5" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="CL6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="CM6" s="5" t="inlineStr">
@@ -8400,27 +8400,27 @@
       </c>
       <c r="CS6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CT6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CU6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CV6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CW6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="CX6" s="5" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="DE6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="DF6" s="6" t="inlineStr">
@@ -8475,27 +8475,27 @@
       </c>
       <c r="DH6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DI6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DJ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DL6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="DM6" s="6" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="DO6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DP6" s="5" t="inlineStr">
@@ -8525,27 +8525,27 @@
       </c>
       <c r="DR6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="DS6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="DT6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="DU6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="DV6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="DW6" s="5" t="inlineStr">
@@ -8565,12 +8565,12 @@
       </c>
       <c r="DZ6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EA6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EB6" s="6" t="inlineStr">
@@ -8580,52 +8580,52 @@
       </c>
       <c r="EC6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ED6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EE6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EF6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EG6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EH6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EI6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EJ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EL6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EM6" s="5" t="inlineStr">
@@ -8635,17 +8635,17 @@
       </c>
       <c r="EN6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EO6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EP6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="EQ6" s="5" t="inlineStr">
@@ -8655,17 +8655,17 @@
       </c>
       <c r="ER6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ES6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ET6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EU6" s="5" t="inlineStr">
@@ -8675,32 +8675,32 @@
       </c>
       <c r="EV6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="EW6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="EX6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="EY6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="EZ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="FA6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="FB6" s="5" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="FC6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FD6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FE6" s="5" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="FH6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FI6" s="5" t="inlineStr">
@@ -8745,32 +8745,32 @@
       </c>
       <c r="FJ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FK6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FL6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FM6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FN6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FO6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FP6" s="5" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="FR6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="FS6" s="5" t="inlineStr">
@@ -8820,27 +8820,27 @@
       </c>
       <c r="FY6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="FZ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GA6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GB6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GC6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GD6" s="5" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="GF6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GG6" s="5" t="inlineStr">
@@ -8890,27 +8890,27 @@
       </c>
       <c r="GM6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GN6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GO6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GP6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GQ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="GR6" s="5" t="inlineStr">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="GU6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GV6" s="5" t="inlineStr">
@@ -8950,12 +8950,12 @@
       </c>
       <c r="GY6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="GZ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="HA6" s="6" t="inlineStr">
@@ -8965,32 +8965,32 @@
       </c>
       <c r="HB6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HC6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HD6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HE6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HF6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HG6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HH6" s="6" t="inlineStr">
@@ -9000,32 +9000,32 @@
       </c>
       <c r="HI6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HJ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HL6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HM6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HN6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HO6" s="6" t="inlineStr">
@@ -9035,47 +9035,47 @@
       </c>
       <c r="HP6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HQ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HR6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HS6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HT6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HU6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HV6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="HW6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HX6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HY6" s="5" t="inlineStr">
@@ -9090,67 +9090,67 @@
       </c>
       <c r="IA6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IB6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IC6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="ID6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IE6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IF6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IG6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IH6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="II6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IJ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IL6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IM6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IN6" s="5" t="inlineStr">
@@ -9160,17 +9160,17 @@
       </c>
       <c r="IO6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IP6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IQ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="IR6" s="5" t="inlineStr">
@@ -9180,67 +9180,67 @@
       </c>
       <c r="IS6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IT6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IU6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IV6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IW6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IX6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IY6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="IZ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="JA6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JB6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JC6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JD6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JE6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JF6" s="5" t="inlineStr">
@@ -9255,12 +9255,12 @@
       </c>
       <c r="JH6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JI6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JJ6" s="5" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="JQ6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JR6" s="6" t="inlineStr">
@@ -9315,17 +9315,17 @@
       </c>
       <c r="JT6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JU6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JV6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JW6" s="5" t="inlineStr">
@@ -9335,17 +9335,17 @@
       </c>
       <c r="JX6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JY6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="JZ6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KA6" s="5" t="inlineStr">
@@ -9355,67 +9355,67 @@
       </c>
       <c r="KB6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KC6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KD6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KE6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KF6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KG6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KH6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KI6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KJ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KL6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KM6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KN6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="KO6" s="5" t="inlineStr">
@@ -9430,47 +9430,47 @@
       </c>
       <c r="KQ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KR6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KS6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KT6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KU6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KV6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KW6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="KX6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KY6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KZ6" s="5" t="inlineStr">
@@ -9480,12 +9480,12 @@
       </c>
       <c r="LA6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LB6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="LC6" s="5" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="LF6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LG6" s="5" t="inlineStr">
@@ -9515,32 +9515,32 @@
       </c>
       <c r="LH6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LI6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LJ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LK6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="LL6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LM6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LN6" s="5" t="inlineStr">
@@ -9560,22 +9560,22 @@
       </c>
       <c r="LQ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LR6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LS6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LT6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LU6" s="5" t="inlineStr">
@@ -9595,22 +9595,22 @@
       </c>
       <c r="LX6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LY6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LZ6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MA6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MB6" s="5" t="inlineStr">
@@ -9630,22 +9630,22 @@
       </c>
       <c r="ME6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MF6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MG6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MH6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MI6" s="5" t="inlineStr">
@@ -9665,22 +9665,22 @@
       </c>
       <c r="ML6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MM6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MN6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MO6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MP6" s="5" t="inlineStr">
@@ -9700,22 +9700,22 @@
       </c>
       <c r="MS6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MT6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MU6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MV6" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MW6" s="5" t="inlineStr">
@@ -9779,89 +9779,89 @@
       <c r="F7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="AA7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="6" t="n">
-        <v>2</v>
+      <c r="AH7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="AI7" s="5" t="n">
         <v>2</v>
@@ -10025,11 +10025,11 @@
       <c r="CJ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="CK7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL7" s="6" t="n">
-        <v>2</v>
+      <c r="CK7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="CM7" s="5" t="n">
         <v>2</v>
@@ -10046,8 +10046,8 @@
       <c r="CQ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="CR7" s="6" t="n">
-        <v>2</v>
+      <c r="CR7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="CS7" s="6" t="n">
         <v>2</v>
@@ -10109,11 +10109,11 @@
       <c r="DL7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="DM7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN7" s="6" t="n">
-        <v>2</v>
+      <c r="DM7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="DO7" s="5" t="n">
         <v>2</v>
@@ -10130,11 +10130,11 @@
       <c r="DS7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="DT7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU7" s="6" t="n">
-        <v>2</v>
+      <c r="DT7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="DV7" s="5" t="n">
         <v>2</v>
@@ -10154,8 +10154,8 @@
       <c r="EA7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="EB7" s="6" t="n">
-        <v>2</v>
+      <c r="EB7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="EC7" s="5" t="n">
         <v>2</v>
@@ -10196,8 +10196,8 @@
       <c r="EO7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="EP7" s="6" t="n">
-        <v>2</v>
+      <c r="EP7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="EQ7" s="5" t="n">
         <v>2</v>
@@ -10217,11 +10217,11 @@
       <c r="EV7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="EW7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="EX7" s="5" t="n">
-        <v>2</v>
+      <c r="EW7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="EY7" s="5" t="n">
         <v>2</v>
@@ -10238,8 +10238,8 @@
       <c r="FC7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="FD7" s="6" t="n">
-        <v>2</v>
+      <c r="FD7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="FE7" s="5" t="n">
         <v>2</v>
@@ -10316,17 +10316,17 @@
       <c r="GC7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="GD7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="GE7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="GF7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="GG7" s="5" t="n">
-        <v>2</v>
+      <c r="GD7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="GH7" s="5" t="n">
         <v>2</v>
@@ -10337,8 +10337,8 @@
       <c r="GJ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="GK7" s="5" t="n">
-        <v>2</v>
+      <c r="GK7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="GL7" s="6" t="n">
         <v>2</v>
@@ -10358,8 +10358,8 @@
       <c r="GQ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="GR7" s="5" t="n">
-        <v>2</v>
+      <c r="GR7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="GS7" s="6" t="n">
         <v>2</v>
@@ -10400,17 +10400,17 @@
       <c r="HE7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="HF7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="HG7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="HH7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="HI7" s="5" t="n">
-        <v>2</v>
+      <c r="HF7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="HJ7" s="5" t="n">
         <v>2</v>
@@ -10421,20 +10421,20 @@
       <c r="HL7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="HM7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="HN7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="HQ7" s="5" t="n">
-        <v>2</v>
+      <c r="HM7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="HR7" s="5" t="n">
         <v>2</v>
@@ -10571,11 +10571,11 @@
       <c r="JJ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="JK7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="JL7" s="6" t="n">
-        <v>2</v>
+      <c r="JK7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="JM7" s="5" t="n">
         <v>2</v>
@@ -10592,11 +10592,11 @@
       <c r="JQ7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="JR7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="JS7" s="6" t="n">
-        <v>2</v>
+      <c r="JR7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="JT7" s="5" t="n">
         <v>2</v>
@@ -10730,8 +10730,8 @@
       <c r="LK7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="LL7" s="5" t="n">
-        <v>2</v>
+      <c r="LL7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="LM7" s="5" t="n">
         <v>2</v>
@@ -10742,17 +10742,17 @@
       <c r="LO7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="LP7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="LQ7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="LR7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="LS7" s="5" t="n">
-        <v>2</v>
+      <c r="LP7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="LQ7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="LR7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="LT7" s="5" t="n">
         <v>2</v>
@@ -10760,53 +10760,53 @@
       <c r="LU7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="LV7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="LW7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="LX7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="LY7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="LZ7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MA7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MB7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MC7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="MD7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="ME7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MF7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MG7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MH7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MI7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="MJ7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="MK7" s="6" t="n">
-        <v>2</v>
+      <c r="LV7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="LW7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="LZ7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MA7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MB7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MC7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MD7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MF7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MG7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MH7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MI7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="ML7" s="5" t="n">
         <v>2</v>
@@ -10823,11 +10823,11 @@
       <c r="MP7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="MQ7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="MR7" s="6" t="n">
-        <v>2</v>
+      <c r="MQ7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="MS7" s="5" t="n">
         <v>2</v>
@@ -10844,20 +10844,20 @@
       <c r="MW7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="MX7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="MY7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="MZ7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="NA7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="NB7" s="7" t="n">
-        <v>1</v>
+      <c r="MX7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="NA7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="NB7" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="NC7" s="5" t="inlineStr"/>
       <c r="ND7" s="5" t="inlineStr"/>
